--- a/biology/Médecine/Trismus_(médecine)/Trismus_(médecine).xlsx
+++ b/biology/Médecine/Trismus_(médecine)/Trismus_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trismus_(m%C3%A9decine)</t>
+          <t>Trismus_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trismus est la contraction constante et involontaire des muscles de la mâchoire (muscles ptérygoïdiens et masséter), qui diminue voire empêche l'ouverture de la bouche. Elle disparaît sous anesthésie générale, contrairement à la constriction, puisque dans ce dernier cas, l'ouverture de la bouche reste mécaniquement impossible.
 L'ouverture buccale normale est de trois doigts. Lors d'un trismus, elle peut être diminuée à un doigt, voire aucun.
-La chirurgie correctrice du trismus s'appelle la « coronoïdectomie »[1],[2].
+La chirurgie correctrice du trismus s'appelle la « coronoïdectomie »,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trismus_(m%C3%A9decine)</t>
+          <t>Trismus_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Angine : le trismus est un signe fréquent de l'angine compliquée d'un phlegmon-péri-amygdalien ;
 Tétanos: le trismus est un signe précoce d'une infection par le tétanos ;
